--- a/EC/Train Runs and Enforcements 2016-05-17.xlsx
+++ b/EC/Train Runs and Enforcements 2016-05-17.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Train Runs" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1827" uniqueCount="529">
   <si>
     <t>Train ID</t>
   </si>
@@ -1611,9 +1611,6 @@
   </si>
   <si>
     <t>Onboard in-route failure</t>
-  </si>
-  <si>
-    <t>Discuss</t>
   </si>
   <si>
     <t>Full-service application occurred, but not commanded by PTC. Seems like air didn't recover. Mechanical?</t>
@@ -2500,8 +2497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CK162"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R103" sqref="R103"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q150" sqref="Q150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2915,10 +2912,10 @@
         <v>18.633333330508322</v>
       </c>
       <c r="Q5" s="62" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="R5" s="62" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="T5" s="74" t="str">
         <f t="shared" ref="T5:T66" si="11">"https://search-rtdc-monitor-bjffxe2xuh6vdkpspy63sjmuny.us-east-1.es.amazonaws.com/_plugin/kibana/#/discover/Steve-Slow-Train-Analysis-(2080s-and-2083s)?_g=(refreshInterval:(display:Off,section:0,value:0),time:(from:'"&amp;TEXT(E5-1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600',mode:absolute,to:'"&amp;TEXT(I5+1/24/60,"yyyy-MM-DD hh:mm:ss")&amp;"-0600'))&amp;_a=(columns:!(Source,'Data.Head%20End%20Milepost',Data.Speed,'Data.Locomotive%20State','Data.Train%20ID','Data.Warning%2FEnforcement%20Type','Data.Target%20Start%20Milepost','Data.Target%20Description','Data.Target%20Speed',"&amp;"'Data.Enforcement%20Train%20Speed','Data.Enforcement%20Start%20Milepost','Data.Target%20Type','Data.Enforcement%20Direction%20of%20Travel','Message%20ID','Data.Body%20of%20Summary%20Text'),filters:!(),index:'emp_*',interval:auto,query:"&amp;"(query_string:(analyze_wildcard:!t,query:'Message%5C%20ID:(2083%20OR%202080%20OR%201041)%20AND%20%22rtdc.l.rtdc."&amp;B5&amp;"%22')),sort:!(Time,asc))"</f>
@@ -5191,7 +5188,7 @@
         <v>8.40000000433065</v>
       </c>
       <c r="Q32" s="62" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="R32" s="62" t="s">
         <v>518</v>
@@ -6206,7 +6203,7 @@
         <v>517</v>
       </c>
       <c r="R44" s="62" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="T44" s="74" t="str">
         <f t="shared" si="11"/>
@@ -7548,7 +7545,7 @@
         <v>40.233333329670131</v>
       </c>
       <c r="Q60" s="62" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="R60" s="62" t="s">
         <v>518</v>
@@ -7804,10 +7801,10 @@
         <v>19.916666670469567</v>
       </c>
       <c r="Q63" s="62" t="s">
+        <v>516</v>
+      </c>
+      <c r="R63" s="62" t="s">
         <v>519</v>
-      </c>
-      <c r="R63" s="62" t="s">
-        <v>520</v>
       </c>
       <c r="T63" s="74" t="str">
         <f t="shared" si="11"/>
@@ -11169,10 +11166,10 @@
         <v>45.883333330275491</v>
       </c>
       <c r="Q103" s="62" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="R103" s="62" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="T103" s="74" t="str">
         <f t="shared" si="19"/>
@@ -14698,10 +14695,10 @@
         <v>45.233333335490897</v>
       </c>
       <c r="Q145" s="62" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="R145" s="62" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="T145" s="74" t="str">
         <f t="shared" si="28"/>
@@ -15278,7 +15275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
@@ -15405,7 +15402,7 @@
         <v>258</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -15450,7 +15447,7 @@
         <v>258</v>
       </c>
       <c r="N4" s="21" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -15495,7 +15492,7 @@
         <v>96</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -15540,7 +15537,7 @@
         <v>96</v>
       </c>
       <c r="N6" s="21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -15585,7 +15582,7 @@
         <v>96</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16451,7 +16448,7 @@
         <v>258</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16541,7 +16538,7 @@
         <v>96</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
@@ -16586,7 +16583,7 @@
         <v>258</v>
       </c>
       <c r="N30" s="21" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="19" customFormat="1" x14ac:dyDescent="0.25">
